--- a/medicine/Psychotrope/Whitbread_(entreprise)/Whitbread_(entreprise).xlsx
+++ b/medicine/Psychotrope/Whitbread_(entreprise)/Whitbread_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Whitbread est une entreprise britannique, active dans les secteurs de l'hôtellerie et de la restauration, faisant partie de l'indice FTSE 100.
@@ -512,7 +524,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Exploitation d'hôtels (800) sous l'enseigne Premier Inn
 Restauration et pubs (400) sous les enseignes Premier Inn, Beefeater, Brewers Fayre, Table Table, Cookhouse &amp; Pub, Bar+Block et Thyme ;</t>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Whibread fut fondée par Samuel Whitbread en partenariat avec Thomas Shewell en 1742. En 1750, ils établirent dans Chiswell Street, à Londres, la première brasserie destinée à la production de masse au Royaume-Uni.
 Jusqu'à la fin du XXe siècle, Whitbread fut l'un des principaux brasseurs anglais et introduit sur le marché britannique, en plus de ses propres produits, des marques comme Stella Artois ou Heineken. Ses activités de brasserie déclinèrent dans les années 1990 lorsque les consommateurs se tournèrent vers des marques plus internationales. La société vendit en 2001 toutes ses activités de brasserie à InBev. La compagnie centra alors son activité sur les chaînes d'hôtels, de restaurants et de cafés.
-En août 2018, Coca Cola annonce l'acquisition de la chaîne de café Costa Coffee pour 5,1 milliards de dollars à Whitbread[7].
+En août 2018, Coca Cola annonce l'acquisition de la chaîne de café Costa Coffee pour 5,1 milliards de dollars à Whitbread.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Principaux actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 19 janvier 2020[8]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 19 janvier 2020:
 </t>
         </is>
       </c>
